--- a/November'21/03.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/03.11.2021/Daily Sales Info.....xlsx
@@ -47222,8 +47222,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51931,8 +51931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
